--- a/public/import/Format Import Peserta.xlsx
+++ b/public/import/Format Import Peserta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NO</t>
   </si>
@@ -53,7 +53,10 @@
     <t>KET.</t>
   </si>
   <si>
-    <t>Kloter</t>
+    <t>EMBARKASI</t>
+  </si>
+  <si>
+    <t>KLOTER</t>
   </si>
   <si>
     <t>1300651470</t>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>Jamaah</t>
+  </si>
+  <si>
+    <t>SUB</t>
   </si>
 </sst>
 </file>
@@ -260,18 +266,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -609,7 +609,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,16 +633,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -651,89 +651,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -763,9 +763,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1087,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1103,10 +1100,11 @@
     <col min="6" max="6" width="8.4296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.2890625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.2890625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="9" width="13.375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1131,25 +1129,28 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10">
         <v>9</v>
@@ -1158,9 +1159,12 @@
         <v>33</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
         <v>66</v>
       </c>
     </row>
